--- a/doc/quality_function_deployment.xlsx
+++ b/doc/quality_function_deployment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\littl\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\littl\OneDrive\桌面\turbo-turret\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF98830-85BA-4ED8-A2A2-D7A8360D16FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23F7575-E617-4BA9-85A6-C14074986837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Continuous Improvement Toolkit . www.citoolkit.com</t>
   </si>
@@ -197,19 +197,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>電池</t>
+    <t>材質</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接口選擇</t>
+    <t>適合越障</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>馬達</t>
+    <t>視覺技術</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>材質</t>
+    <t>機構</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驅動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳典謀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -242,26 +250,6 @@
     <font>
       <sz val="8"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF0000CC"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="0" tint="-0.499984740745262"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -309,12 +297,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="新細明體"/>
@@ -335,6 +317,66 @@
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Adobe 黑体 Std R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Adobe 黑体 Std R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0000CC"/>
+      <name val="Adobe 黑体 Std R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="55"/>
+      <name val="Adobe 黑体 Std R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Adobe 黑体 Std R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Adobe 黑体 Std R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Adobe 黑体 Std R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Adobe 黑体 Std R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Adobe 黑体 Std R"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -626,52 +668,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -712,26 +722,20 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -764,106 +768,161 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,8 +984,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3130062" y="357554"/>
-          <a:ext cx="3663461" cy="1354015"/>
+          <a:off x="3132083" y="325821"/>
+          <a:ext cx="3652345" cy="1324303"/>
           <a:chOff x="364" y="70"/>
           <a:chExt cx="376" cy="134"/>
         </a:xfrm>
@@ -1123,7 +1182,7 @@
                 <a:latin typeface="+mn-lt"/>
                 <a:cs typeface="Arial"/>
               </a:rPr>
-              <a:t>.</a:t>
+              <a:t>+</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1176,7 +1235,7 @@
                 <a:latin typeface="+mn-lt"/>
                 <a:cs typeface="Arial"/>
               </a:rPr>
-              <a:t>.</a:t>
+              <a:t>-</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1229,7 +1288,7 @@
                 <a:latin typeface="+mn-lt"/>
                 <a:cs typeface="Arial"/>
               </a:rPr>
-              <a:t>.</a:t>
+              <a:t>+</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1282,7 +1341,7 @@
                 <a:latin typeface="+mn-lt"/>
                 <a:cs typeface="Arial"/>
               </a:rPr>
-              <a:t>.</a:t>
+              <a:t>+</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1335,7 +1394,7 @@
                 <a:latin typeface="+mn-lt"/>
                 <a:cs typeface="Arial"/>
               </a:rPr>
-              <a:t>.</a:t>
+              <a:t>+</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1441,7 +1500,7 @@
                 <a:latin typeface="+mn-lt"/>
                 <a:cs typeface="Arial"/>
               </a:rPr>
-              <a:t>.</a:t>
+              <a:t>-</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1494,7 +1553,7 @@
                 <a:latin typeface="+mn-lt"/>
                 <a:cs typeface="Arial"/>
               </a:rPr>
-              <a:t>.</a:t>
+              <a:t>+</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1872,576 +1931,664 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="9" customWidth="1"/>
-    <col min="4" max="13" width="10.6640625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="2.6640625" style="9" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="2.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="5" customWidth="1"/>
+    <col min="4" max="13" width="10.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="50"/>
+      <c r="B1" s="51" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="50"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="3"/>
-      <c r="J3" s="64" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="3"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="42" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="56">
         <v>44989</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="3"/>
-      <c r="J5" s="47" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="35" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="47" t="s">
+      <c r="L5" s="35" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="3"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="32"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="3"/>
-      <c r="J7" s="64" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="32"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="27"/>
-      <c r="J8" s="33">
+      <c r="A8" s="50"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="22">
         <v>9</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="22">
         <v>3</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="22">
         <v>1</v>
       </c>
-      <c r="M8" s="33"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="48" t="s">
+      <c r="A9" s="50"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="J9" s="34" t="s">
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="K9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="M9" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="25.2" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="A10" s="50"/>
+      <c r="B10" s="61" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="74" t="s">
+      <c r="I10" s="50"/>
+      <c r="J10" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+    </row>
+    <row r="11" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+      <c r="A11" s="55"/>
+      <c r="B11" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="68">
+        <v>1</v>
+      </c>
+      <c r="B12" s="69">
+        <v>2</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71">
+        <v>9</v>
+      </c>
+      <c r="F12" s="71">
+        <v>3</v>
+      </c>
+      <c r="G12" s="71">
+        <v>3</v>
+      </c>
+      <c r="H12" s="71"/>
+      <c r="I12" s="72">
+        <f t="shared" ref="I12:I19" si="0">(D12*B12)+(E12*B12)+(F12*B12)+(G12*B12)+(H12*B12)</f>
+        <v>30</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="68">
+        <v>2</v>
+      </c>
+      <c r="B13" s="69">
+        <v>5</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71">
+        <v>9</v>
+      </c>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71">
+        <v>1</v>
+      </c>
+      <c r="H13" s="71">
+        <v>3</v>
+      </c>
+      <c r="I13" s="72">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="J13" s="26"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="68">
+        <v>3</v>
+      </c>
+      <c r="B14" s="69">
+        <v>3</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71">
+        <v>9</v>
+      </c>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71">
+        <v>1</v>
+      </c>
+      <c r="I14" s="72">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="27"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="68">
+        <v>4</v>
+      </c>
+      <c r="B15" s="69">
+        <v>4</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71">
+        <v>9</v>
+      </c>
+      <c r="H15" s="71"/>
+      <c r="I15" s="72">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="J15" s="26"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68">
+        <v>5</v>
+      </c>
+      <c r="B16" s="69">
+        <v>5</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="71">
+        <v>3</v>
+      </c>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71">
+        <v>1</v>
+      </c>
+      <c r="G16" s="71">
+        <v>3</v>
+      </c>
+      <c r="H16" s="71">
+        <v>9</v>
+      </c>
+      <c r="I16" s="72">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="27"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="68">
+        <v>6</v>
+      </c>
+      <c r="B17" s="69">
+        <v>3</v>
+      </c>
+      <c r="C17" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-    </row>
-    <row r="11" spans="1:13" ht="25.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67">
+      <c r="D17" s="71">
+        <v>3</v>
+      </c>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71">
+        <v>9</v>
+      </c>
+      <c r="G17" s="71">
+        <v>3</v>
+      </c>
+      <c r="H17" s="71">
         <v>1</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="52">
-        <f t="shared" ref="I12:I19" si="0">(D12*B12)+(E12*B12)+(F12*B12)+(G12*B12)+(H12*B12)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="36"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67">
-        <v>2</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="11" t="s">
+      <c r="I17" s="72">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="52">
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="68">
+        <v>7</v>
+      </c>
+      <c r="B18" s="69"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="38"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67">
-        <v>3</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="52">
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="27"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="68">
+        <v>8</v>
+      </c>
+      <c r="B19" s="69"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="38"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67">
-        <v>4</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="38"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67">
-        <v>5</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="38"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67">
-        <v>6</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="38"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67">
-        <v>7</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="38"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67">
-        <v>8</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="27"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67">
+      <c r="A20" s="68">
         <v>9</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="52">
+      <c r="B20" s="69"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="72">
         <f>(D20*B20)+(E20*B20)+(F20*B20)+(G20*B20)+(H20*B20)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="38"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="39"/>
-      <c r="C21" s="53" t="s">
+      <c r="A21" s="50"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D21" s="76">
         <f>D12*B12+D13*B13+D14*B14+D15*B15+D16*B16+D17*B17+D18*B18+D19*B19+D20*B20</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="58">
+        <v>24</v>
+      </c>
+      <c r="E21" s="76">
         <f>E12*B12+E13*B13+E14*B14+E15*B15+E16*B16+E17*B17+E18*B18+E19*B19+E20*B20</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="58">
+        <v>63</v>
+      </c>
+      <c r="F21" s="76">
         <f>F12*B12+F13*B13+F14*B14+F15*B15+F16*B16+F17*B17+F18*B18+F19*B19+F20*B20</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="58">
+        <v>65</v>
+      </c>
+      <c r="G21" s="76">
         <f>G12*B12+G13*B13+G14*B14+G15*B15+G16*B16+G17*B17+G18*B18+G19*B19+G20*B20</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="58">
+        <v>71</v>
+      </c>
+      <c r="H21" s="76">
         <f>H12*B12+H13*B13+H14*B14+H15*B15+H16*B16+H17*B17+H18*B18+H19*B19+H20*B20</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
+        <v>66</v>
+      </c>
+      <c r="I21" s="77">
         <f>SUM(I12:I20)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
+        <v>289</v>
+      </c>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
     </row>
     <row r="22" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="39"/>
-      <c r="C22" s="54" t="s">
+      <c r="A22" s="50"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="59" t="str">
+      <c r="D22" s="79">
         <f>IF(ISERROR(D21/I21)," ",D21/I21)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E22" s="59" t="str">
+        <v>8.3044982698961933E-2</v>
+      </c>
+      <c r="E22" s="79">
         <f>IF(ISERROR(E21/I21)," ",E21/I21)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F22" s="59" t="str">
+        <v>0.2179930795847751</v>
+      </c>
+      <c r="F22" s="79">
         <f>IF(ISERROR(F21/I21)," ",F21/I21)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G22" s="59" t="str">
+        <v>0.22491349480968859</v>
+      </c>
+      <c r="G22" s="79">
         <f>IF(ISERROR(G21/I21)," ",G21/I21)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H22" s="59" t="str">
+        <v>0.24567474048442905</v>
+      </c>
+      <c r="H22" s="79">
         <f>IF(ISERROR(H21/I21)," ",H21/I21)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I22" s="6">
+        <v>0.22837370242214533</v>
+      </c>
+      <c r="I22" s="80">
         <f>SUM(D22:H22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="39"/>
-      <c r="C23" s="54" t="s">
+      <c r="A23" s="50"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23" s="81">
         <f>IF(ISERROR(RANK(D21,D21:H21,0)),"",RANK(D21,D21:H21,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E23" s="60">
+        <v>5</v>
+      </c>
+      <c r="E23" s="81">
         <f>IF(ISERROR(RANK(E21,D21:H21,0)),"",RANK(E21,D21:H21,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F23" s="60">
+        <v>4</v>
+      </c>
+      <c r="F23" s="81">
         <f>IF(ISERROR(RANK(F21,D21:H21,0)),"",RANK(F21,D21:H21,0))</f>
-        <v>1</v>
-      </c>
-      <c r="G23" s="60">
+        <v>3</v>
+      </c>
+      <c r="G23" s="81">
         <f>IF(ISERROR(RANK(G21,D21:H21,0)),"",RANK(G21,D21:H21,0))</f>
         <v>1</v>
       </c>
-      <c r="H23" s="60">
+      <c r="H23" s="81">
         <f>IF(ISERROR(RANK(H21,D21:H21,0)),"",RANK(H21,D21:H21,0))</f>
-        <v>1</v>
-      </c>
-      <c r="I23" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I23" s="82"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="40"/>
-      <c r="C24" s="55" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="7"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="40"/>
-      <c r="C25" s="56" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="8"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="40"/>
-      <c r="C26" s="56" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="8"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="40"/>
-      <c r="C27" s="56" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="43" t="s">
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="40"/>
-      <c r="C28" s="56" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="43" t="s">
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="32" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="40"/>
-      <c r="C29" s="57" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="43"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="44"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
     </row>
     <row r="31" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
@@ -2449,104 +2596,104 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="19"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="10"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="26"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="17"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="22"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="13"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
     </row>
     <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
     </row>
     <row r="38" spans="2:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="44" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="45" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="45" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="45" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B42" s="69" t="s">
+      <c r="B42" s="45" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="43" spans="2:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B43" s="68" t="s">
+      <c r="B43" s="44" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B44" s="70" t="s">
+      <c r="B44" s="46" t="s">
         <v>39</v>
       </c>
     </row>
